--- a/natmiOut/OldD2/LR-pairs_lrc2p/Gdf9-Acvr2a.xlsx
+++ b/natmiOut/OldD2/LR-pairs_lrc2p/Gdf9-Acvr2a.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -82,6 +82,15 @@
     <t>FAPs</t>
   </si>
   <si>
+    <t>M1</t>
+  </si>
+  <si>
+    <t>M2</t>
+  </si>
+  <si>
+    <t>Neutro</t>
+  </si>
+  <si>
     <t>sCs</t>
   </si>
   <si>
@@ -89,15 +98,6 @@
   </si>
   <si>
     <t>Acvr2a</t>
-  </si>
-  <si>
-    <t>M1</t>
-  </si>
-  <si>
-    <t>M2</t>
-  </si>
-  <si>
-    <t>Neutro</t>
   </si>
 </sst>
 </file>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T19"/>
+  <dimension ref="A1:T37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,61 +528,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>1.90612603415514</v>
+        <v>1.9559325</v>
       </c>
       <c r="H2">
-        <v>1.90612603415514</v>
+        <v>3.911865</v>
       </c>
       <c r="I2">
-        <v>0.4513481112048218</v>
+        <v>0.3115910700801156</v>
       </c>
       <c r="J2">
-        <v>0.4513481112048218</v>
+        <v>0.2474535818750443</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>10.6444693044665</v>
+        <v>10.6794795</v>
       </c>
       <c r="N2">
-        <v>10.6444693044665</v>
+        <v>21.358959</v>
       </c>
       <c r="O2">
-        <v>0.1476353775197148</v>
+        <v>0.1386817475209803</v>
       </c>
       <c r="P2">
-        <v>0.1476353775197148</v>
+        <v>0.1052706227093344</v>
       </c>
       <c r="Q2">
-        <v>20.28970006100885</v>
+        <v>20.88834103713375</v>
       </c>
       <c r="R2">
-        <v>20.28970006100885</v>
+        <v>83.55336414853498</v>
       </c>
       <c r="S2">
-        <v>0.0666349487905341</v>
+        <v>0.04321199411064266</v>
       </c>
       <c r="T2">
-        <v>0.0666349487905341</v>
+        <v>0.02604959265564117</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,61 +590,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>1.90612603415514</v>
+        <v>1.9559325</v>
       </c>
       <c r="H3">
-        <v>1.90612603415514</v>
+        <v>3.911865</v>
       </c>
       <c r="I3">
-        <v>0.4513481112048218</v>
+        <v>0.3115910700801156</v>
       </c>
       <c r="J3">
-        <v>0.4513481112048218</v>
+        <v>0.2474535818750443</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>24.6712015127492</v>
+        <v>26.32069366666667</v>
       </c>
       <c r="N3">
-        <v>24.6712015127492</v>
+        <v>78.962081</v>
       </c>
       <c r="O3">
-        <v>0.3421816574426433</v>
+        <v>0.3417956646349414</v>
       </c>
       <c r="P3">
-        <v>0.3421816574426433</v>
+        <v>0.3891756820777128</v>
       </c>
       <c r="Q3">
-        <v>47.02641949733892</v>
+        <v>51.48150016517749</v>
       </c>
       <c r="R3">
-        <v>47.02641949733892</v>
+        <v>308.889000991065</v>
       </c>
       <c r="S3">
-        <v>0.1544430447756724</v>
+        <v>0.1065004768923457</v>
       </c>
       <c r="T3">
-        <v>0.1544430447756724</v>
+        <v>0.0963029165087935</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,61 +652,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D4" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>1.90612603415514</v>
+        <v>1.9559325</v>
       </c>
       <c r="H4">
-        <v>1.90612603415514</v>
+        <v>3.911865</v>
       </c>
       <c r="I4">
-        <v>0.4513481112048218</v>
+        <v>0.3115910700801156</v>
       </c>
       <c r="J4">
-        <v>0.4513481112048218</v>
+        <v>0.2474535818750443</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>5.64877581538767</v>
+        <v>5.92768</v>
       </c>
       <c r="N4">
-        <v>5.64877581538767</v>
+        <v>17.78304</v>
       </c>
       <c r="O4">
-        <v>0.07834671003081929</v>
+        <v>0.07697575721224656</v>
       </c>
       <c r="P4">
-        <v>0.07834671003081929</v>
+        <v>0.08764620478296728</v>
       </c>
       <c r="Q4">
-        <v>10.76727864281637</v>
+        <v>11.5941419616</v>
       </c>
       <c r="R4">
-        <v>10.76727864281637</v>
+        <v>69.5648517696</v>
       </c>
       <c r="S4">
-        <v>0.03536163959152215</v>
+        <v>0.02398495855999108</v>
       </c>
       <c r="T4">
-        <v>0.03536163959152215</v>
+        <v>0.02168836731129889</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,61 +714,61 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C5" t="s">
+        <v>27</v>
+      </c>
+      <c r="D5" t="s">
         <v>23</v>
       </c>
-      <c r="C5" t="s">
-        <v>24</v>
-      </c>
-      <c r="D5" t="s">
-        <v>26</v>
-      </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>1.90612603415514</v>
+        <v>1.9559325</v>
       </c>
       <c r="H5">
-        <v>1.90612603415514</v>
+        <v>3.911865</v>
       </c>
       <c r="I5">
-        <v>0.4513481112048218</v>
+        <v>0.3115910700801156</v>
       </c>
       <c r="J5">
-        <v>0.4513481112048218</v>
+        <v>0.2474535818750443</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>5.98816026829204</v>
+        <v>6.071436333333334</v>
       </c>
       <c r="N5">
-        <v>5.98816026829204</v>
+        <v>18.214309</v>
       </c>
       <c r="O5">
-        <v>0.08305386361412043</v>
+        <v>0.07884255039480526</v>
       </c>
       <c r="P5">
-        <v>0.08305386361412043</v>
+        <v>0.08977177448817772</v>
       </c>
       <c r="Q5">
-        <v>11.41418818408489</v>
+        <v>11.8753196460475</v>
       </c>
       <c r="R5">
-        <v>11.41418818408489</v>
+        <v>71.25191787628499</v>
       </c>
       <c r="S5">
-        <v>0.03748620447049612</v>
+        <v>0.02456663464536281</v>
       </c>
       <c r="T5">
-        <v>0.03748620447049612</v>
+        <v>0.02221434714837829</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,61 +776,61 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C6" t="s">
+        <v>27</v>
+      </c>
+      <c r="D6" t="s">
         <v>24</v>
       </c>
-      <c r="D6" t="s">
-        <v>27</v>
-      </c>
       <c r="E6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>1.90612603415514</v>
+        <v>1.9559325</v>
       </c>
       <c r="H6">
-        <v>1.90612603415514</v>
+        <v>3.911865</v>
       </c>
       <c r="I6">
-        <v>0.4513481112048218</v>
+        <v>0.3115910700801156</v>
       </c>
       <c r="J6">
-        <v>0.4513481112048218</v>
+        <v>0.2474535818750443</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>9.951221760547551</v>
+        <v>10.56170766666667</v>
       </c>
       <c r="N6">
-        <v>9.951221760547551</v>
+        <v>31.685123</v>
       </c>
       <c r="O6">
-        <v>0.1380202562831734</v>
+        <v>0.1371523842542203</v>
       </c>
       <c r="P6">
-        <v>0.1380202562831734</v>
+        <v>0.1561645691080663</v>
       </c>
       <c r="Q6">
-        <v>18.96828286943083</v>
+        <v>20.6579872807325</v>
       </c>
       <c r="R6">
-        <v>18.96828286943083</v>
+        <v>123.947923684395</v>
       </c>
       <c r="S6">
-        <v>0.06229518198141574</v>
+        <v>0.04273545817381169</v>
       </c>
       <c r="T6">
-        <v>0.06229518198141574</v>
+        <v>0.03864348198776388</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,61 +838,61 @@
         <v>20</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C7" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D7" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>1.90612603415514</v>
+        <v>1.9559325</v>
       </c>
       <c r="H7">
-        <v>1.90612603415514</v>
+        <v>3.911865</v>
       </c>
       <c r="I7">
-        <v>0.4513481112048218</v>
+        <v>0.3115910700801156</v>
       </c>
       <c r="J7">
-        <v>0.4513481112048218</v>
+        <v>0.2474535818750443</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>15.1958908183617</v>
+        <v>17.446105</v>
       </c>
       <c r="N7">
-        <v>15.1958908183617</v>
+        <v>34.89221</v>
       </c>
       <c r="O7">
-        <v>0.2107621351095285</v>
+        <v>0.2265518959828062</v>
       </c>
       <c r="P7">
-        <v>0.2107621351095285</v>
+        <v>0.1719711468337415</v>
       </c>
       <c r="Q7">
-        <v>28.96528310105829</v>
+        <v>34.1234037679125</v>
       </c>
       <c r="R7">
-        <v>28.96528310105829</v>
+        <v>136.49361507165</v>
       </c>
       <c r="S7">
-        <v>0.09512709159518117</v>
+        <v>0.07059154769796164</v>
       </c>
       <c r="T7">
-        <v>0.09512709159518117</v>
+        <v>0.04255487626316851</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,61 +900,61 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C8" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D8" t="s">
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>1.25057698901264</v>
+        <v>1.322803333333333</v>
       </c>
       <c r="H8">
-        <v>1.25057698901264</v>
+        <v>3.96841</v>
       </c>
       <c r="I8">
-        <v>0.2961218470305662</v>
+        <v>0.2107300257748553</v>
       </c>
       <c r="J8">
-        <v>0.2961218470305662</v>
+        <v>0.2510304596014291</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>10.6444693044665</v>
+        <v>10.6794795</v>
       </c>
       <c r="N8">
-        <v>10.6444693044665</v>
+        <v>21.358959</v>
       </c>
       <c r="O8">
-        <v>0.1476353775197148</v>
+        <v>0.1386817475209803</v>
       </c>
       <c r="P8">
-        <v>0.1476353775197148</v>
+        <v>0.1052706227093344</v>
       </c>
       <c r="Q8">
-        <v>13.31172837241719</v>
+        <v>14.126851080865</v>
       </c>
       <c r="R8">
-        <v>13.31172837241719</v>
+        <v>84.76110648519</v>
       </c>
       <c r="S8">
-        <v>0.04371806067819289</v>
+        <v>0.02922440822959815</v>
       </c>
       <c r="T8">
-        <v>0.04371806067819289</v>
+        <v>0.02642613280125285</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,61 +962,61 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C9" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D9" t="s">
         <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>1.25057698901264</v>
+        <v>1.322803333333333</v>
       </c>
       <c r="H9">
-        <v>1.25057698901264</v>
+        <v>3.96841</v>
       </c>
       <c r="I9">
-        <v>0.2961218470305662</v>
+        <v>0.2107300257748553</v>
       </c>
       <c r="J9">
-        <v>0.2961218470305662</v>
+        <v>0.2510304596014291</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>24.6712015127492</v>
+        <v>26.32069366666667</v>
       </c>
       <c r="N9">
-        <v>24.6712015127492</v>
+        <v>78.962081</v>
       </c>
       <c r="O9">
-        <v>0.3421816574426433</v>
+        <v>0.3417956646349414</v>
       </c>
       <c r="P9">
-        <v>0.3421816574426433</v>
+        <v>0.3891756820777128</v>
       </c>
       <c r="Q9">
-        <v>30.85323690313798</v>
+        <v>34.81710131791223</v>
       </c>
       <c r="R9">
-        <v>30.85323690313798</v>
+        <v>313.35391186121</v>
       </c>
       <c r="S9">
-        <v>0.101327464421896</v>
+        <v>0.072026609218255</v>
       </c>
       <c r="T9">
-        <v>0.101327464421896</v>
+        <v>0.09769495033766791</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,61 +1024,61 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C10" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D10" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>1.25057698901264</v>
+        <v>1.322803333333333</v>
       </c>
       <c r="H10">
-        <v>1.25057698901264</v>
+        <v>3.96841</v>
       </c>
       <c r="I10">
-        <v>0.2961218470305662</v>
+        <v>0.2107300257748553</v>
       </c>
       <c r="J10">
-        <v>0.2961218470305662</v>
+        <v>0.2510304596014291</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>5.64877581538767</v>
+        <v>5.92768</v>
       </c>
       <c r="N10">
-        <v>5.64877581538767</v>
+        <v>17.78304</v>
       </c>
       <c r="O10">
-        <v>0.07834671003081929</v>
+        <v>0.07697575721224656</v>
       </c>
       <c r="P10">
-        <v>0.07834671003081929</v>
+        <v>0.08764620478296728</v>
       </c>
       <c r="Q10">
-        <v>7.064229050814932</v>
+        <v>7.841154862933333</v>
       </c>
       <c r="R10">
-        <v>7.064229050814932</v>
+        <v>70.5703937664</v>
       </c>
       <c r="S10">
-        <v>0.0232001724830944</v>
+        <v>0.01622110330137572</v>
       </c>
       <c r="T10">
-        <v>0.0232001724830944</v>
+        <v>0.02200186706898925</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1086,61 +1086,61 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
+        <v>26</v>
+      </c>
+      <c r="C11" t="s">
+        <v>27</v>
+      </c>
+      <c r="D11" t="s">
         <v>23</v>
       </c>
-      <c r="C11" t="s">
-        <v>24</v>
-      </c>
-      <c r="D11" t="s">
-        <v>26</v>
-      </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>1.25057698901264</v>
+        <v>1.322803333333333</v>
       </c>
       <c r="H11">
-        <v>1.25057698901264</v>
+        <v>3.96841</v>
       </c>
       <c r="I11">
-        <v>0.2961218470305662</v>
+        <v>0.2107300257748553</v>
       </c>
       <c r="J11">
-        <v>0.2961218470305662</v>
+        <v>0.2510304596014291</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>5.98816026829204</v>
+        <v>6.071436333333334</v>
       </c>
       <c r="N11">
-        <v>5.98816026829204</v>
+        <v>18.214309</v>
       </c>
       <c r="O11">
-        <v>0.08305386361412043</v>
+        <v>0.07884255039480526</v>
       </c>
       <c r="P11">
-        <v>0.08305386361412043</v>
+        <v>0.08977177448817772</v>
       </c>
       <c r="Q11">
-        <v>7.488655438045781</v>
+        <v>8.031316219854444</v>
       </c>
       <c r="R11">
-        <v>7.488655438045781</v>
+        <v>72.28184597869</v>
       </c>
       <c r="S11">
-        <v>0.02459406349643808</v>
+        <v>0.01661449267685264</v>
       </c>
       <c r="T11">
-        <v>0.02459406349643808</v>
+        <v>0.0225354498090031</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1148,61 +1148,61 @@
         <v>21</v>
       </c>
       <c r="B12" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C12" t="s">
+        <v>27</v>
+      </c>
+      <c r="D12" t="s">
         <v>24</v>
       </c>
-      <c r="D12" t="s">
-        <v>27</v>
-      </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>1.25057698901264</v>
+        <v>1.322803333333333</v>
       </c>
       <c r="H12">
-        <v>1.25057698901264</v>
+        <v>3.96841</v>
       </c>
       <c r="I12">
-        <v>0.2961218470305662</v>
+        <v>0.2107300257748553</v>
       </c>
       <c r="J12">
-        <v>0.2961218470305662</v>
+        <v>0.2510304596014291</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>9.951221760547551</v>
+        <v>10.56170766666667</v>
       </c>
       <c r="N12">
-        <v>9.951221760547551</v>
+        <v>31.685123</v>
       </c>
       <c r="O12">
-        <v>0.1380202562831734</v>
+        <v>0.1371523842542203</v>
       </c>
       <c r="P12">
-        <v>0.1380202562831734</v>
+        <v>0.1561645691080663</v>
       </c>
       <c r="Q12">
-        <v>12.44476894630262</v>
+        <v>13.97106210715889</v>
       </c>
       <c r="R12">
-        <v>12.44476894630262</v>
+        <v>125.73955896443</v>
       </c>
       <c r="S12">
-        <v>0.04087081321820541</v>
+        <v>0.0289021254689747</v>
       </c>
       <c r="T12">
-        <v>0.04087081321820541</v>
+        <v>0.03920206355665701</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1210,61 +1210,61 @@
         <v>21</v>
       </c>
       <c r="B13" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C13" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D13" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>1.25057698901264</v>
+        <v>1.322803333333333</v>
       </c>
       <c r="H13">
-        <v>1.25057698901264</v>
+        <v>3.96841</v>
       </c>
       <c r="I13">
-        <v>0.2961218470305662</v>
+        <v>0.2107300257748553</v>
       </c>
       <c r="J13">
-        <v>0.2961218470305662</v>
+        <v>0.2510304596014291</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>15.1958908183617</v>
+        <v>17.446105</v>
       </c>
       <c r="N13">
-        <v>15.1958908183617</v>
+        <v>34.89221</v>
       </c>
       <c r="O13">
-        <v>0.2107621351095285</v>
+        <v>0.2265518959828062</v>
       </c>
       <c r="P13">
-        <v>0.2107621351095285</v>
+        <v>0.1719711468337415</v>
       </c>
       <c r="Q13">
-        <v>19.0036313849916</v>
+        <v>23.07776584768333</v>
       </c>
       <c r="R13">
-        <v>19.0036313849916</v>
+        <v>138.4665950861</v>
       </c>
       <c r="S13">
-        <v>0.06241127273273934</v>
+        <v>0.0477412868797991</v>
       </c>
       <c r="T13">
-        <v>0.06241127273273934</v>
+        <v>0.04316999602785898</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1272,61 +1272,61 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C14" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D14" t="s">
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F14">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G14">
-        <v>1.06648078293469</v>
+        <v>0.671412</v>
       </c>
       <c r="H14">
-        <v>1.06648078293469</v>
+        <v>2.014236</v>
       </c>
       <c r="I14">
-        <v>0.2525300417646121</v>
+        <v>0.1069597154015441</v>
       </c>
       <c r="J14">
-        <v>0.2525300417646121</v>
+        <v>0.1274149064299667</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>10.6444693044665</v>
+        <v>10.6794795</v>
       </c>
       <c r="N14">
-        <v>10.6444693044665</v>
+        <v>21.358959</v>
       </c>
       <c r="O14">
-        <v>0.1476353775197148</v>
+        <v>0.1386817475209803</v>
       </c>
       <c r="P14">
-        <v>0.1476353775197148</v>
+        <v>0.1052706227093344</v>
       </c>
       <c r="Q14">
-        <v>11.35212195775171</v>
+        <v>7.170330690054</v>
       </c>
       <c r="R14">
-        <v>11.35212195775171</v>
+        <v>43.02198414032399</v>
       </c>
       <c r="S14">
-        <v>0.03728236805098786</v>
+        <v>0.01483336024623284</v>
       </c>
       <c r="T14">
-        <v>0.03728236805098786</v>
+        <v>0.01341304654233417</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1334,61 +1334,61 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C15" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D15" t="s">
         <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F15">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G15">
-        <v>1.06648078293469</v>
+        <v>0.671412</v>
       </c>
       <c r="H15">
-        <v>1.06648078293469</v>
+        <v>2.014236</v>
       </c>
       <c r="I15">
-        <v>0.2525300417646121</v>
+        <v>0.1069597154015441</v>
       </c>
       <c r="J15">
-        <v>0.2525300417646121</v>
+        <v>0.1274149064299667</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>24.6712015127492</v>
+        <v>26.32069366666667</v>
       </c>
       <c r="N15">
-        <v>24.6712015127492</v>
+        <v>78.962081</v>
       </c>
       <c r="O15">
-        <v>0.3421816574426433</v>
+        <v>0.3417956646349414</v>
       </c>
       <c r="P15">
-        <v>0.3421816574426433</v>
+        <v>0.3891756820777128</v>
       </c>
       <c r="Q15">
-        <v>26.31136230525627</v>
+        <v>17.672029576124</v>
       </c>
       <c r="R15">
-        <v>26.31136230525627</v>
+        <v>159.048266185116</v>
       </c>
       <c r="S15">
-        <v>0.0864111482450749</v>
+        <v>0.03655836701483493</v>
       </c>
       <c r="T15">
-        <v>0.0864111482450749</v>
+        <v>0.04958678311675024</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1396,61 +1396,61 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C16" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D16" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F16">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G16">
-        <v>1.06648078293469</v>
+        <v>0.671412</v>
       </c>
       <c r="H16">
-        <v>1.06648078293469</v>
+        <v>2.014236</v>
       </c>
       <c r="I16">
-        <v>0.2525300417646121</v>
+        <v>0.1069597154015441</v>
       </c>
       <c r="J16">
-        <v>0.2525300417646121</v>
+        <v>0.1274149064299667</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>5.64877581538767</v>
+        <v>5.92768</v>
       </c>
       <c r="N16">
-        <v>5.64877581538767</v>
+        <v>17.78304</v>
       </c>
       <c r="O16">
-        <v>0.07834671003081929</v>
+        <v>0.07697575721224656</v>
       </c>
       <c r="P16">
-        <v>0.07834671003081929</v>
+        <v>0.08764620478296728</v>
       </c>
       <c r="Q16">
-        <v>6.024310854217185</v>
+        <v>3.97991548416</v>
       </c>
       <c r="R16">
-        <v>6.024310854217185</v>
+        <v>35.81923935744</v>
       </c>
       <c r="S16">
-        <v>0.01978489795620275</v>
+        <v>0.008233305084240245</v>
       </c>
       <c r="T16">
-        <v>0.01978489795620275</v>
+        <v>0.01116743298136347</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1458,61 +1458,61 @@
         <v>22</v>
       </c>
       <c r="B17" t="s">
+        <v>26</v>
+      </c>
+      <c r="C17" t="s">
+        <v>27</v>
+      </c>
+      <c r="D17" t="s">
         <v>23</v>
       </c>
-      <c r="C17" t="s">
-        <v>24</v>
-      </c>
-      <c r="D17" t="s">
-        <v>26</v>
-      </c>
       <c r="E17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F17">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G17">
-        <v>1.06648078293469</v>
+        <v>0.671412</v>
       </c>
       <c r="H17">
-        <v>1.06648078293469</v>
+        <v>2.014236</v>
       </c>
       <c r="I17">
-        <v>0.2525300417646121</v>
+        <v>0.1069597154015441</v>
       </c>
       <c r="J17">
-        <v>0.2525300417646121</v>
+        <v>0.1274149064299667</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>5.98816026829204</v>
+        <v>6.071436333333334</v>
       </c>
       <c r="N17">
-        <v>5.98816026829204</v>
+        <v>18.214309</v>
       </c>
       <c r="O17">
-        <v>0.08305386361412043</v>
+        <v>0.07884255039480526</v>
       </c>
       <c r="P17">
-        <v>0.08305386361412043</v>
+        <v>0.08977177448817772</v>
       </c>
       <c r="Q17">
-        <v>6.386257851266499</v>
+        <v>4.076435211436</v>
       </c>
       <c r="R17">
-        <v>6.386257851266499</v>
+        <v>36.687916902924</v>
       </c>
       <c r="S17">
-        <v>0.02097359564718623</v>
+        <v>0.008432976751760265</v>
       </c>
       <c r="T17">
-        <v>0.02097359564718623</v>
+        <v>0.01143826224646323</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1520,61 +1520,61 @@
         <v>22</v>
       </c>
       <c r="B18" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C18" t="s">
+        <v>27</v>
+      </c>
+      <c r="D18" t="s">
         <v>24</v>
       </c>
-      <c r="D18" t="s">
-        <v>27</v>
-      </c>
       <c r="E18">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F18">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G18">
-        <v>1.06648078293469</v>
+        <v>0.671412</v>
       </c>
       <c r="H18">
-        <v>1.06648078293469</v>
+        <v>2.014236</v>
       </c>
       <c r="I18">
-        <v>0.2525300417646121</v>
+        <v>0.1069597154015441</v>
       </c>
       <c r="J18">
-        <v>0.2525300417646121</v>
+        <v>0.1274149064299667</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>9.951221760547551</v>
+        <v>10.56170766666667</v>
       </c>
       <c r="N18">
-        <v>9.951221760547551</v>
+        <v>31.685123</v>
       </c>
       <c r="O18">
-        <v>0.1380202562831734</v>
+        <v>0.1371523842542203</v>
       </c>
       <c r="P18">
-        <v>0.1380202562831734</v>
+        <v>0.1561645691080663</v>
       </c>
       <c r="Q18">
-        <v>10.61278677434548</v>
+        <v>7.091257267891999</v>
       </c>
       <c r="R18">
-        <v>10.61278677434548</v>
+        <v>63.82131541102799</v>
       </c>
       <c r="S18">
-        <v>0.03485426108355224</v>
+        <v>0.01466977998647461</v>
       </c>
       <c r="T18">
-        <v>0.03485426108355224</v>
+        <v>0.01989769396058033</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1582,61 +1582,1177 @@
         <v>22</v>
       </c>
       <c r="B19" t="s">
+        <v>26</v>
+      </c>
+      <c r="C19" t="s">
+        <v>27</v>
+      </c>
+      <c r="D19" t="s">
+        <v>25</v>
+      </c>
+      <c r="E19">
+        <v>2</v>
+      </c>
+      <c r="F19">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G19">
+        <v>0.671412</v>
+      </c>
+      <c r="H19">
+        <v>2.014236</v>
+      </c>
+      <c r="I19">
+        <v>0.1069597154015441</v>
+      </c>
+      <c r="J19">
+        <v>0.1274149064299667</v>
+      </c>
+      <c r="K19">
+        <v>2</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>17.446105</v>
+      </c>
+      <c r="N19">
+        <v>34.89221</v>
+      </c>
+      <c r="O19">
+        <v>0.2265518959828062</v>
+      </c>
+      <c r="P19">
+        <v>0.1719711468337415</v>
+      </c>
+      <c r="Q19">
+        <v>11.71352425026</v>
+      </c>
+      <c r="R19">
+        <v>70.28114550155999</v>
+      </c>
+      <c r="S19">
+        <v>0.02423192631800117</v>
+      </c>
+      <c r="T19">
+        <v>0.02191168758247524</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
         <v>23</v>
       </c>
-      <c r="C19" t="s">
+      <c r="B20" t="s">
+        <v>26</v>
+      </c>
+      <c r="C20" t="s">
+        <v>27</v>
+      </c>
+      <c r="D20" t="s">
+        <v>20</v>
+      </c>
+      <c r="E20">
+        <v>2</v>
+      </c>
+      <c r="F20">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G20">
+        <v>0.261338</v>
+      </c>
+      <c r="H20">
+        <v>0.784014</v>
+      </c>
+      <c r="I20">
+        <v>0.04163261619334883</v>
+      </c>
+      <c r="J20">
+        <v>0.04959452142141433</v>
+      </c>
+      <c r="K20">
+        <v>2</v>
+      </c>
+      <c r="L20">
+        <v>1</v>
+      </c>
+      <c r="M20">
+        <v>10.6794795</v>
+      </c>
+      <c r="N20">
+        <v>21.358959</v>
+      </c>
+      <c r="O20">
+        <v>0.1386817475209803</v>
+      </c>
+      <c r="P20">
+        <v>0.1052706227093344</v>
+      </c>
+      <c r="Q20">
+        <v>2.790953813571</v>
+      </c>
+      <c r="R20">
+        <v>16.745722881426</v>
+      </c>
+      <c r="S20">
+        <v>0.005773683967563876</v>
+      </c>
+      <c r="T20">
+        <v>0.00522084615300371</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>26</v>
+      </c>
+      <c r="C21" t="s">
+        <v>27</v>
+      </c>
+      <c r="D21" t="s">
+        <v>21</v>
+      </c>
+      <c r="E21">
+        <v>2</v>
+      </c>
+      <c r="F21">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G21">
+        <v>0.261338</v>
+      </c>
+      <c r="H21">
+        <v>0.784014</v>
+      </c>
+      <c r="I21">
+        <v>0.04163261619334883</v>
+      </c>
+      <c r="J21">
+        <v>0.04959452142141433</v>
+      </c>
+      <c r="K21">
+        <v>3</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>26.32069366666667</v>
+      </c>
+      <c r="N21">
+        <v>78.962081</v>
+      </c>
+      <c r="O21">
+        <v>0.3417956646349414</v>
+      </c>
+      <c r="P21">
+        <v>0.3891756820777128</v>
+      </c>
+      <c r="Q21">
+        <v>6.878597441459334</v>
+      </c>
+      <c r="R21">
+        <v>61.907376973134</v>
+      </c>
+      <c r="S21">
+        <v>0.01422984772229709</v>
+      </c>
+      <c r="T21">
+        <v>0.01930098170149666</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>23</v>
+      </c>
+      <c r="B22" t="s">
+        <v>26</v>
+      </c>
+      <c r="C22" t="s">
+        <v>27</v>
+      </c>
+      <c r="D22" t="s">
+        <v>22</v>
+      </c>
+      <c r="E22">
+        <v>2</v>
+      </c>
+      <c r="F22">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G22">
+        <v>0.261338</v>
+      </c>
+      <c r="H22">
+        <v>0.784014</v>
+      </c>
+      <c r="I22">
+        <v>0.04163261619334883</v>
+      </c>
+      <c r="J22">
+        <v>0.04959452142141433</v>
+      </c>
+      <c r="K22">
+        <v>3</v>
+      </c>
+      <c r="L22">
+        <v>1</v>
+      </c>
+      <c r="M22">
+        <v>5.92768</v>
+      </c>
+      <c r="N22">
+        <v>17.78304</v>
+      </c>
+      <c r="O22">
+        <v>0.07697575721224656</v>
+      </c>
+      <c r="P22">
+        <v>0.08764620478296728</v>
+      </c>
+      <c r="Q22">
+        <v>1.54912803584</v>
+      </c>
+      <c r="R22">
+        <v>13.94215232256</v>
+      </c>
+      <c r="S22">
+        <v>0.003204702156209864</v>
+      </c>
+      <c r="T22">
+        <v>0.004346771580614537</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>23</v>
+      </c>
+      <c r="B23" t="s">
+        <v>26</v>
+      </c>
+      <c r="C23" t="s">
+        <v>27</v>
+      </c>
+      <c r="D23" t="s">
+        <v>23</v>
+      </c>
+      <c r="E23">
+        <v>2</v>
+      </c>
+      <c r="F23">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G23">
+        <v>0.261338</v>
+      </c>
+      <c r="H23">
+        <v>0.784014</v>
+      </c>
+      <c r="I23">
+        <v>0.04163261619334883</v>
+      </c>
+      <c r="J23">
+        <v>0.04959452142141433</v>
+      </c>
+      <c r="K23">
+        <v>3</v>
+      </c>
+      <c r="L23">
+        <v>1</v>
+      </c>
+      <c r="M23">
+        <v>6.071436333333334</v>
+      </c>
+      <c r="N23">
+        <v>18.214309</v>
+      </c>
+      <c r="O23">
+        <v>0.07884255039480526</v>
+      </c>
+      <c r="P23">
+        <v>0.08977177448817772</v>
+      </c>
+      <c r="Q23">
+        <v>1.586697028480667</v>
+      </c>
+      <c r="R23">
+        <v>14.280273256326</v>
+      </c>
+      <c r="S23">
+        <v>0.00328242164029169</v>
+      </c>
+      <c r="T23">
+        <v>0.004452188192892306</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>23</v>
+      </c>
+      <c r="B24" t="s">
+        <v>26</v>
+      </c>
+      <c r="C24" t="s">
+        <v>27</v>
+      </c>
+      <c r="D24" t="s">
         <v>24</v>
       </c>
-      <c r="D19" t="s">
+      <c r="E24">
+        <v>2</v>
+      </c>
+      <c r="F24">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G24">
+        <v>0.261338</v>
+      </c>
+      <c r="H24">
+        <v>0.784014</v>
+      </c>
+      <c r="I24">
+        <v>0.04163261619334883</v>
+      </c>
+      <c r="J24">
+        <v>0.04959452142141433</v>
+      </c>
+      <c r="K24">
+        <v>3</v>
+      </c>
+      <c r="L24">
+        <v>1</v>
+      </c>
+      <c r="M24">
+        <v>10.56170766666667</v>
+      </c>
+      <c r="N24">
+        <v>31.685123</v>
+      </c>
+      <c r="O24">
+        <v>0.1371523842542203</v>
+      </c>
+      <c r="P24">
+        <v>0.1561645691080663</v>
+      </c>
+      <c r="Q24">
+        <v>2.760175558191333</v>
+      </c>
+      <c r="R24">
+        <v>24.841580023722</v>
+      </c>
+      <c r="S24">
+        <v>0.005710012573658651</v>
+      </c>
+      <c r="T24">
+        <v>0.00774490706789593</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>26</v>
+      </c>
+      <c r="C25" t="s">
+        <v>27</v>
+      </c>
+      <c r="D25" t="s">
+        <v>25</v>
+      </c>
+      <c r="E25">
+        <v>2</v>
+      </c>
+      <c r="F25">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G25">
+        <v>0.261338</v>
+      </c>
+      <c r="H25">
+        <v>0.784014</v>
+      </c>
+      <c r="I25">
+        <v>0.04163261619334883</v>
+      </c>
+      <c r="J25">
+        <v>0.04959452142141433</v>
+      </c>
+      <c r="K25">
+        <v>2</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>17.446105</v>
+      </c>
+      <c r="N25">
+        <v>34.89221</v>
+      </c>
+      <c r="O25">
+        <v>0.2265518959828062</v>
+      </c>
+      <c r="P25">
+        <v>0.1719711468337415</v>
+      </c>
+      <c r="Q25">
+        <v>4.55933018849</v>
+      </c>
+      <c r="R25">
+        <v>27.35598113094</v>
+      </c>
+      <c r="S25">
+        <v>0.009431948133327657</v>
+      </c>
+      <c r="T25">
+        <v>0.008528826725511182</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>26</v>
+      </c>
+      <c r="C26" t="s">
+        <v>27</v>
+      </c>
+      <c r="D26" t="s">
+        <v>20</v>
+      </c>
+      <c r="E26">
+        <v>2</v>
+      </c>
+      <c r="F26">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G26">
+        <v>0.998443</v>
+      </c>
+      <c r="H26">
+        <v>2.995329</v>
+      </c>
+      <c r="I26">
+        <v>0.1590575967135885</v>
+      </c>
+      <c r="J26">
+        <v>0.1894760913130168</v>
+      </c>
+      <c r="K26">
+        <v>2</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>10.6794795</v>
+      </c>
+      <c r="N26">
+        <v>21.358959</v>
+      </c>
+      <c r="O26">
+        <v>0.1386817475209803</v>
+      </c>
+      <c r="P26">
+        <v>0.1052706227093344</v>
+      </c>
+      <c r="Q26">
+        <v>10.6628515504185</v>
+      </c>
+      <c r="R26">
+        <v>63.977109302511</v>
+      </c>
+      <c r="S26">
+        <v>0.02205838546872778</v>
+      </c>
+      <c r="T26">
+        <v>0.01994626612105199</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20">
+      <c r="A27" t="s">
+        <v>24</v>
+      </c>
+      <c r="B27" t="s">
+        <v>26</v>
+      </c>
+      <c r="C27" t="s">
+        <v>27</v>
+      </c>
+      <c r="D27" t="s">
+        <v>21</v>
+      </c>
+      <c r="E27">
+        <v>2</v>
+      </c>
+      <c r="F27">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G27">
+        <v>0.998443</v>
+      </c>
+      <c r="H27">
+        <v>2.995329</v>
+      </c>
+      <c r="I27">
+        <v>0.1590575967135885</v>
+      </c>
+      <c r="J27">
+        <v>0.1894760913130168</v>
+      </c>
+      <c r="K27">
+        <v>3</v>
+      </c>
+      <c r="L27">
+        <v>1</v>
+      </c>
+      <c r="M27">
+        <v>26.32069366666667</v>
+      </c>
+      <c r="N27">
+        <v>78.962081</v>
+      </c>
+      <c r="O27">
+        <v>0.3417956646349414</v>
+      </c>
+      <c r="P27">
+        <v>0.3891756820777128</v>
+      </c>
+      <c r="Q27">
+        <v>26.27971234662767</v>
+      </c>
+      <c r="R27">
+        <v>236.517411119649</v>
+      </c>
+      <c r="S27">
+        <v>0.05436519698395743</v>
+      </c>
+      <c r="T27">
+        <v>0.07373948707416232</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20">
+      <c r="A28" t="s">
+        <v>24</v>
+      </c>
+      <c r="B28" t="s">
+        <v>26</v>
+      </c>
+      <c r="C28" t="s">
+        <v>27</v>
+      </c>
+      <c r="D28" t="s">
         <v>22</v>
       </c>
-      <c r="E19">
-        <v>1</v>
-      </c>
-      <c r="F19">
-        <v>1</v>
-      </c>
-      <c r="G19">
-        <v>1.06648078293469</v>
-      </c>
-      <c r="H19">
-        <v>1.06648078293469</v>
-      </c>
-      <c r="I19">
-        <v>0.2525300417646121</v>
-      </c>
-      <c r="J19">
-        <v>0.2525300417646121</v>
-      </c>
-      <c r="K19">
-        <v>1</v>
-      </c>
-      <c r="L19">
-        <v>1</v>
-      </c>
-      <c r="M19">
-        <v>15.1958908183617</v>
-      </c>
-      <c r="N19">
-        <v>15.1958908183617</v>
-      </c>
-      <c r="O19">
-        <v>0.2107621351095285</v>
-      </c>
-      <c r="P19">
-        <v>0.2107621351095285</v>
-      </c>
-      <c r="Q19">
-        <v>16.20612553735645</v>
-      </c>
-      <c r="R19">
-        <v>16.20612553735645</v>
-      </c>
-      <c r="S19">
-        <v>0.05322377078160806</v>
-      </c>
-      <c r="T19">
-        <v>0.05322377078160806</v>
+      <c r="E28">
+        <v>2</v>
+      </c>
+      <c r="F28">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G28">
+        <v>0.998443</v>
+      </c>
+      <c r="H28">
+        <v>2.995329</v>
+      </c>
+      <c r="I28">
+        <v>0.1590575967135885</v>
+      </c>
+      <c r="J28">
+        <v>0.1894760913130168</v>
+      </c>
+      <c r="K28">
+        <v>3</v>
+      </c>
+      <c r="L28">
+        <v>1</v>
+      </c>
+      <c r="M28">
+        <v>5.92768</v>
+      </c>
+      <c r="N28">
+        <v>17.78304</v>
+      </c>
+      <c r="O28">
+        <v>0.07697575721224656</v>
+      </c>
+      <c r="P28">
+        <v>0.08764620478296728</v>
+      </c>
+      <c r="Q28">
+        <v>5.918450602239999</v>
+      </c>
+      <c r="R28">
+        <v>53.26605542016</v>
+      </c>
+      <c r="S28">
+        <v>0.01224357894738861</v>
+      </c>
+      <c r="T28">
+        <v>0.01660686030069688</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20">
+      <c r="A29" t="s">
+        <v>24</v>
+      </c>
+      <c r="B29" t="s">
+        <v>26</v>
+      </c>
+      <c r="C29" t="s">
+        <v>27</v>
+      </c>
+      <c r="D29" t="s">
+        <v>23</v>
+      </c>
+      <c r="E29">
+        <v>2</v>
+      </c>
+      <c r="F29">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G29">
+        <v>0.998443</v>
+      </c>
+      <c r="H29">
+        <v>2.995329</v>
+      </c>
+      <c r="I29">
+        <v>0.1590575967135885</v>
+      </c>
+      <c r="J29">
+        <v>0.1894760913130168</v>
+      </c>
+      <c r="K29">
+        <v>3</v>
+      </c>
+      <c r="L29">
+        <v>1</v>
+      </c>
+      <c r="M29">
+        <v>6.071436333333334</v>
+      </c>
+      <c r="N29">
+        <v>18.214309</v>
+      </c>
+      <c r="O29">
+        <v>0.07884255039480526</v>
+      </c>
+      <c r="P29">
+        <v>0.08977177448817772</v>
+      </c>
+      <c r="Q29">
+        <v>6.061983106962334</v>
+      </c>
+      <c r="R29">
+        <v>54.557847962661</v>
+      </c>
+      <c r="S29">
+        <v>0.01254050658456771</v>
+      </c>
+      <c r="T29">
+        <v>0.01700960494025352</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20">
+      <c r="A30" t="s">
+        <v>24</v>
+      </c>
+      <c r="B30" t="s">
+        <v>26</v>
+      </c>
+      <c r="C30" t="s">
+        <v>27</v>
+      </c>
+      <c r="D30" t="s">
+        <v>24</v>
+      </c>
+      <c r="E30">
+        <v>2</v>
+      </c>
+      <c r="F30">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G30">
+        <v>0.998443</v>
+      </c>
+      <c r="H30">
+        <v>2.995329</v>
+      </c>
+      <c r="I30">
+        <v>0.1590575967135885</v>
+      </c>
+      <c r="J30">
+        <v>0.1894760913130168</v>
+      </c>
+      <c r="K30">
+        <v>3</v>
+      </c>
+      <c r="L30">
+        <v>1</v>
+      </c>
+      <c r="M30">
+        <v>10.56170766666667</v>
+      </c>
+      <c r="N30">
+        <v>31.685123</v>
+      </c>
+      <c r="O30">
+        <v>0.1371523842542203</v>
+      </c>
+      <c r="P30">
+        <v>0.1561645691080663</v>
+      </c>
+      <c r="Q30">
+        <v>10.54526308782967</v>
+      </c>
+      <c r="R30">
+        <v>94.90736779046699</v>
+      </c>
+      <c r="S30">
+        <v>0.02181512862301489</v>
+      </c>
+      <c r="T30">
+        <v>0.02958945215617789</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20">
+      <c r="A31" t="s">
+        <v>24</v>
+      </c>
+      <c r="B31" t="s">
+        <v>26</v>
+      </c>
+      <c r="C31" t="s">
+        <v>27</v>
+      </c>
+      <c r="D31" t="s">
+        <v>25</v>
+      </c>
+      <c r="E31">
+        <v>2</v>
+      </c>
+      <c r="F31">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G31">
+        <v>0.998443</v>
+      </c>
+      <c r="H31">
+        <v>2.995329</v>
+      </c>
+      <c r="I31">
+        <v>0.1590575967135885</v>
+      </c>
+      <c r="J31">
+        <v>0.1894760913130168</v>
+      </c>
+      <c r="K31">
+        <v>2</v>
+      </c>
+      <c r="L31">
+        <v>1</v>
+      </c>
+      <c r="M31">
+        <v>17.446105</v>
+      </c>
+      <c r="N31">
+        <v>34.89221</v>
+      </c>
+      <c r="O31">
+        <v>0.2265518959828062</v>
+      </c>
+      <c r="P31">
+        <v>0.1719711468337415</v>
+      </c>
+      <c r="Q31">
+        <v>17.418941414515</v>
+      </c>
+      <c r="R31">
+        <v>104.51364848709</v>
+      </c>
+      <c r="S31">
+        <v>0.03603480010593203</v>
+      </c>
+      <c r="T31">
+        <v>0.03258442072067423</v>
+      </c>
+    </row>
+    <row r="32" spans="1:20">
+      <c r="A32" t="s">
+        <v>25</v>
+      </c>
+      <c r="B32" t="s">
+        <v>26</v>
+      </c>
+      <c r="C32" t="s">
+        <v>27</v>
+      </c>
+      <c r="D32" t="s">
+        <v>20</v>
+      </c>
+      <c r="E32">
+        <v>2</v>
+      </c>
+      <c r="F32">
+        <v>1</v>
+      </c>
+      <c r="G32">
+        <v>1.067313</v>
+      </c>
+      <c r="H32">
+        <v>2.134626</v>
+      </c>
+      <c r="I32">
+        <v>0.1700289758365477</v>
+      </c>
+      <c r="J32">
+        <v>0.1350304393591288</v>
+      </c>
+      <c r="K32">
+        <v>2</v>
+      </c>
+      <c r="L32">
+        <v>1</v>
+      </c>
+      <c r="M32">
+        <v>10.6794795</v>
+      </c>
+      <c r="N32">
+        <v>21.358959</v>
+      </c>
+      <c r="O32">
+        <v>0.1386817475209803</v>
+      </c>
+      <c r="P32">
+        <v>0.1052706227093344</v>
+      </c>
+      <c r="Q32">
+        <v>11.3983473035835</v>
+      </c>
+      <c r="R32">
+        <v>45.593389214334</v>
+      </c>
+      <c r="S32">
+        <v>0.02357991549821497</v>
+      </c>
+      <c r="T32">
+        <v>0.0142147384360505</v>
+      </c>
+    </row>
+    <row r="33" spans="1:20">
+      <c r="A33" t="s">
+        <v>25</v>
+      </c>
+      <c r="B33" t="s">
+        <v>26</v>
+      </c>
+      <c r="C33" t="s">
+        <v>27</v>
+      </c>
+      <c r="D33" t="s">
+        <v>21</v>
+      </c>
+      <c r="E33">
+        <v>2</v>
+      </c>
+      <c r="F33">
+        <v>1</v>
+      </c>
+      <c r="G33">
+        <v>1.067313</v>
+      </c>
+      <c r="H33">
+        <v>2.134626</v>
+      </c>
+      <c r="I33">
+        <v>0.1700289758365477</v>
+      </c>
+      <c r="J33">
+        <v>0.1350304393591288</v>
+      </c>
+      <c r="K33">
+        <v>3</v>
+      </c>
+      <c r="L33">
+        <v>1</v>
+      </c>
+      <c r="M33">
+        <v>26.32069366666667</v>
+      </c>
+      <c r="N33">
+        <v>78.962081</v>
+      </c>
+      <c r="O33">
+        <v>0.3417956646349414</v>
+      </c>
+      <c r="P33">
+        <v>0.3891756820777128</v>
+      </c>
+      <c r="Q33">
+        <v>28.092418519451</v>
+      </c>
+      <c r="R33">
+        <v>168.554511116706</v>
+      </c>
+      <c r="S33">
+        <v>0.05811516680325123</v>
+      </c>
+      <c r="T33">
+        <v>0.05255056333884219</v>
+      </c>
+    </row>
+    <row r="34" spans="1:20">
+      <c r="A34" t="s">
+        <v>25</v>
+      </c>
+      <c r="B34" t="s">
+        <v>26</v>
+      </c>
+      <c r="C34" t="s">
+        <v>27</v>
+      </c>
+      <c r="D34" t="s">
+        <v>22</v>
+      </c>
+      <c r="E34">
+        <v>2</v>
+      </c>
+      <c r="F34">
+        <v>1</v>
+      </c>
+      <c r="G34">
+        <v>1.067313</v>
+      </c>
+      <c r="H34">
+        <v>2.134626</v>
+      </c>
+      <c r="I34">
+        <v>0.1700289758365477</v>
+      </c>
+      <c r="J34">
+        <v>0.1350304393591288</v>
+      </c>
+      <c r="K34">
+        <v>3</v>
+      </c>
+      <c r="L34">
+        <v>1</v>
+      </c>
+      <c r="M34">
+        <v>5.92768</v>
+      </c>
+      <c r="N34">
+        <v>17.78304</v>
+      </c>
+      <c r="O34">
+        <v>0.07697575721224656</v>
+      </c>
+      <c r="P34">
+        <v>0.08764620478296728</v>
+      </c>
+      <c r="Q34">
+        <v>6.326689923839999</v>
+      </c>
+      <c r="R34">
+        <v>37.96013954304</v>
+      </c>
+      <c r="S34">
+        <v>0.01308810916304104</v>
+      </c>
+      <c r="T34">
+        <v>0.01183490554000425</v>
+      </c>
+    </row>
+    <row r="35" spans="1:20">
+      <c r="A35" t="s">
+        <v>25</v>
+      </c>
+      <c r="B35" t="s">
+        <v>26</v>
+      </c>
+      <c r="C35" t="s">
+        <v>27</v>
+      </c>
+      <c r="D35" t="s">
+        <v>23</v>
+      </c>
+      <c r="E35">
+        <v>2</v>
+      </c>
+      <c r="F35">
+        <v>1</v>
+      </c>
+      <c r="G35">
+        <v>1.067313</v>
+      </c>
+      <c r="H35">
+        <v>2.134626</v>
+      </c>
+      <c r="I35">
+        <v>0.1700289758365477</v>
+      </c>
+      <c r="J35">
+        <v>0.1350304393591288</v>
+      </c>
+      <c r="K35">
+        <v>3</v>
+      </c>
+      <c r="L35">
+        <v>1</v>
+      </c>
+      <c r="M35">
+        <v>6.071436333333334</v>
+      </c>
+      <c r="N35">
+        <v>18.214309</v>
+      </c>
+      <c r="O35">
+        <v>0.07884255039480526</v>
+      </c>
+      <c r="P35">
+        <v>0.08977177448817772</v>
+      </c>
+      <c r="Q35">
+        <v>6.480122927239</v>
+      </c>
+      <c r="R35">
+        <v>38.880737563434</v>
+      </c>
+      <c r="S35">
+        <v>0.01340551809597014</v>
+      </c>
+      <c r="T35">
+        <v>0.01212192215118727</v>
+      </c>
+    </row>
+    <row r="36" spans="1:20">
+      <c r="A36" t="s">
+        <v>25</v>
+      </c>
+      <c r="B36" t="s">
+        <v>26</v>
+      </c>
+      <c r="C36" t="s">
+        <v>27</v>
+      </c>
+      <c r="D36" t="s">
+        <v>24</v>
+      </c>
+      <c r="E36">
+        <v>2</v>
+      </c>
+      <c r="F36">
+        <v>1</v>
+      </c>
+      <c r="G36">
+        <v>1.067313</v>
+      </c>
+      <c r="H36">
+        <v>2.134626</v>
+      </c>
+      <c r="I36">
+        <v>0.1700289758365477</v>
+      </c>
+      <c r="J36">
+        <v>0.1350304393591288</v>
+      </c>
+      <c r="K36">
+        <v>3</v>
+      </c>
+      <c r="L36">
+        <v>1</v>
+      </c>
+      <c r="M36">
+        <v>10.56170766666667</v>
+      </c>
+      <c r="N36">
+        <v>31.685123</v>
+      </c>
+      <c r="O36">
+        <v>0.1371523842542203</v>
+      </c>
+      <c r="P36">
+        <v>0.1561645691080663</v>
+      </c>
+      <c r="Q36">
+        <v>11.272647894833</v>
+      </c>
+      <c r="R36">
+        <v>67.63588736899798</v>
+      </c>
+      <c r="S36">
+        <v>0.02331987942828573</v>
+      </c>
+      <c r="T36">
+        <v>0.02108697037899122</v>
+      </c>
+    </row>
+    <row r="37" spans="1:20">
+      <c r="A37" t="s">
+        <v>25</v>
+      </c>
+      <c r="B37" t="s">
+        <v>26</v>
+      </c>
+      <c r="C37" t="s">
+        <v>27</v>
+      </c>
+      <c r="D37" t="s">
+        <v>25</v>
+      </c>
+      <c r="E37">
+        <v>2</v>
+      </c>
+      <c r="F37">
+        <v>1</v>
+      </c>
+      <c r="G37">
+        <v>1.067313</v>
+      </c>
+      <c r="H37">
+        <v>2.134626</v>
+      </c>
+      <c r="I37">
+        <v>0.1700289758365477</v>
+      </c>
+      <c r="J37">
+        <v>0.1350304393591288</v>
+      </c>
+      <c r="K37">
+        <v>2</v>
+      </c>
+      <c r="L37">
+        <v>1</v>
+      </c>
+      <c r="M37">
+        <v>17.446105</v>
+      </c>
+      <c r="N37">
+        <v>34.89221</v>
+      </c>
+      <c r="O37">
+        <v>0.2265518959828062</v>
+      </c>
+      <c r="P37">
+        <v>0.1719711468337415</v>
+      </c>
+      <c r="Q37">
+        <v>18.620454665865</v>
+      </c>
+      <c r="R37">
+        <v>74.48181866345999</v>
+      </c>
+      <c r="S37">
+        <v>0.03852038684778464</v>
+      </c>
+      <c r="T37">
+        <v>0.02322133951405337</v>
       </c>
     </row>
   </sheetData>
